--- a/documents/sample-workbook.xlsx
+++ b/documents/sample-workbook.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Column A</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>This is a random row out here.</t>
+  </si>
+  <si>
+    <t>Rick Crawford</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -439,6 +442,11 @@
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
